--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Itgax.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Itgax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H2">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.080938</v>
       </c>
       <c r="O2">
-        <v>0.0008941297188036159</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="P2">
-        <v>0.0008941297188036158</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="Q2">
-        <v>0.1120634723144444</v>
+        <v>0.10307251955</v>
       </c>
       <c r="R2">
-        <v>1.00857125083</v>
+        <v>0.92765267595</v>
       </c>
       <c r="S2">
-        <v>2.02762752505187E-05</v>
+        <v>6.89746132577426E-06</v>
       </c>
       <c r="T2">
-        <v>2.027627525051871E-05</v>
+        <v>6.897461325774261E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H3">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.33306466666667</v>
+        <v>40.972402</v>
       </c>
       <c r="N3">
-        <v>33.999194</v>
+        <v>122.917206</v>
       </c>
       <c r="O3">
-        <v>0.3755923023891076</v>
+        <v>0.5110542630933305</v>
       </c>
       <c r="P3">
-        <v>0.3755923023891076</v>
+        <v>0.5110542630933306</v>
       </c>
       <c r="Q3">
-        <v>47.07390515619888</v>
+        <v>156.53198891085</v>
       </c>
       <c r="R3">
-        <v>423.66514640579</v>
+        <v>1408.78790019765</v>
       </c>
       <c r="S3">
-        <v>0.008517346806688874</v>
+        <v>0.01047489034393274</v>
       </c>
       <c r="T3">
-        <v>0.008517346806688876</v>
+        <v>0.01047489034393274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H4">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.005178666666666667</v>
+        <v>39.172931</v>
       </c>
       <c r="N4">
-        <v>0.015536</v>
+        <v>117.518793</v>
       </c>
       <c r="O4">
-        <v>0.0001716276571120238</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="P4">
-        <v>0.0001716276571120237</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="Q4">
-        <v>0.02151051552888889</v>
+        <v>149.657244915675</v>
       </c>
       <c r="R4">
-        <v>0.19359463976</v>
+        <v>1346.915204241075</v>
       </c>
       <c r="S4">
-        <v>3.892018733994646E-06</v>
+        <v>0.01001484259271505</v>
       </c>
       <c r="T4">
-        <v>3.892018733994646E-06</v>
+        <v>0.01001484259271505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.153678333333333</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H5">
-        <v>12.461035</v>
+        <v>421.767242</v>
       </c>
       <c r="I5">
-        <v>0.02267710693885585</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J5">
-        <v>0.02267710693885585</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>18.80862433333333</v>
+        <v>0.02697933333333333</v>
       </c>
       <c r="N5">
-        <v>56.425873</v>
+        <v>0.080938</v>
       </c>
       <c r="O5">
-        <v>0.6233419402349768</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="P5">
-        <v>0.6233419402349767</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="Q5">
-        <v>78.12497537317277</v>
+        <v>3.792999670332888</v>
       </c>
       <c r="R5">
-        <v>703.124778358555</v>
+        <v>34.136997032996</v>
       </c>
       <c r="S5">
-        <v>0.01413559183818246</v>
+        <v>0.0002538219561238582</v>
       </c>
       <c r="T5">
-        <v>0.01413559183818246</v>
+        <v>0.0002538219561238582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>421.767242</v>
       </c>
       <c r="I6">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J6">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.02697933333333333</v>
+        <v>40.972402</v>
       </c>
       <c r="N6">
-        <v>0.080938</v>
+        <v>122.917206</v>
       </c>
       <c r="O6">
-        <v>0.0008941297188036159</v>
+        <v>0.5110542630933305</v>
       </c>
       <c r="P6">
-        <v>0.0008941297188036158</v>
+        <v>0.5110542630933306</v>
       </c>
       <c r="Q6">
-        <v>3.792999670332888</v>
+        <v>5760.272329885095</v>
       </c>
       <c r="R6">
-        <v>34.136997032996</v>
+        <v>51842.45096896586</v>
       </c>
       <c r="S6">
-        <v>0.0006862887946662644</v>
+        <v>0.385468947443713</v>
       </c>
       <c r="T6">
-        <v>0.0006862887946662645</v>
+        <v>0.3854689474437131</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J7">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.33306466666667</v>
+        <v>39.172931</v>
       </c>
       <c r="N7">
-        <v>33.999194</v>
+        <v>117.518793</v>
       </c>
       <c r="O7">
-        <v>0.3755923023891076</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="P7">
-        <v>0.3755923023891076</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="Q7">
-        <v>1593.30514262255</v>
+        <v>5507.286356308767</v>
       </c>
       <c r="R7">
-        <v>14339.74628360295</v>
+        <v>49565.5772067789</v>
       </c>
       <c r="S7">
-        <v>0.2882856738476919</v>
+        <v>0.3685394983885786</v>
       </c>
       <c r="T7">
-        <v>0.288285673847692</v>
+        <v>0.3685394983885787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.5890806666667</v>
+        <v>30.51067</v>
       </c>
       <c r="H8">
-        <v>421.767242</v>
+        <v>91.53201</v>
       </c>
       <c r="I8">
-        <v>0.7675494732291734</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J8">
-        <v>0.7675494732291737</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.005178666666666667</v>
+        <v>0.02697933333333333</v>
       </c>
       <c r="N8">
-        <v>0.015536</v>
+        <v>0.080938</v>
       </c>
       <c r="O8">
-        <v>0.0001716276571120238</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="P8">
-        <v>0.0001716276571120237</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="Q8">
-        <v>0.7280639857457778</v>
+        <v>0.8231575361533333</v>
       </c>
       <c r="R8">
-        <v>6.552575871712</v>
+        <v>7.40841782538</v>
       </c>
       <c r="S8">
-        <v>0.0001317327178078911</v>
+        <v>5.508449095282879E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001317327178078911</v>
+        <v>5.50844909528288E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.5890806666667</v>
+        <v>30.51067</v>
       </c>
       <c r="H9">
-        <v>421.767242</v>
+        <v>91.53201</v>
       </c>
       <c r="I9">
-        <v>0.7675494732291734</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J9">
-        <v>0.7675494732291737</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.80862433333333</v>
+        <v>40.972402</v>
       </c>
       <c r="N9">
-        <v>56.425873</v>
+        <v>122.917206</v>
       </c>
       <c r="O9">
-        <v>0.6233419402349768</v>
+        <v>0.5110542630933305</v>
       </c>
       <c r="P9">
-        <v>0.6233419402349767</v>
+        <v>0.5110542630933306</v>
       </c>
       <c r="Q9">
-        <v>2644.28720362803</v>
+        <v>1250.09543652934</v>
       </c>
       <c r="R9">
-        <v>23798.58483265227</v>
+        <v>11250.85892876406</v>
       </c>
       <c r="S9">
-        <v>0.4784457778690074</v>
+        <v>0.08365454696006812</v>
       </c>
       <c r="T9">
-        <v>0.4784457778690074</v>
+        <v>0.08365454696006813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H10">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I10">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J10">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02697933333333333</v>
+        <v>39.172931</v>
       </c>
       <c r="N10">
-        <v>0.080938</v>
+        <v>117.518793</v>
       </c>
       <c r="O10">
-        <v>0.0008941297188036159</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="P10">
-        <v>0.0008941297188036158</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="Q10">
-        <v>0.1921730718844444</v>
+        <v>1195.19237067377</v>
       </c>
       <c r="R10">
-        <v>1.72955764696</v>
+        <v>10756.73133606393</v>
       </c>
       <c r="S10">
-        <v>3.477095632315567E-05</v>
+        <v>0.07998051458889348</v>
       </c>
       <c r="T10">
-        <v>3.477095632315567E-05</v>
+        <v>0.07998051458889348</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.122973333333332</v>
+        <v>0.258813</v>
       </c>
       <c r="H11">
-        <v>21.36892</v>
+        <v>0.776439</v>
       </c>
       <c r="I11">
-        <v>0.03888804453304685</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J11">
-        <v>0.03888804453304685</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>11.33306466666667</v>
+        <v>0.02697933333333333</v>
       </c>
       <c r="N11">
-        <v>33.999194</v>
+        <v>0.080938</v>
       </c>
       <c r="O11">
-        <v>0.3755923023891076</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="P11">
-        <v>0.3755923023891076</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="Q11">
-        <v>80.72511740560887</v>
+        <v>0.006982602198</v>
       </c>
       <c r="R11">
-        <v>726.5260566504799</v>
+        <v>0.06284341978199999</v>
       </c>
       <c r="S11">
-        <v>0.01460605018157721</v>
+        <v>4.672654634255648E-07</v>
       </c>
       <c r="T11">
-        <v>0.01460605018157722</v>
+        <v>4.672654634255648E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.122973333333332</v>
+        <v>0.258813</v>
       </c>
       <c r="H12">
-        <v>21.36892</v>
+        <v>0.776439</v>
       </c>
       <c r="I12">
-        <v>0.03888804453304685</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J12">
-        <v>0.03888804453304685</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.005178666666666667</v>
+        <v>40.972402</v>
       </c>
       <c r="N12">
-        <v>0.015536</v>
+        <v>122.917206</v>
       </c>
       <c r="O12">
-        <v>0.0001716276571120238</v>
+        <v>0.5110542630933305</v>
       </c>
       <c r="P12">
-        <v>0.0001716276571120237</v>
+        <v>0.5110542630933306</v>
       </c>
       <c r="Q12">
-        <v>0.03688750456888888</v>
+        <v>10.604190278826</v>
       </c>
       <c r="R12">
-        <v>0.33198754112</v>
+        <v>95.43771250943401</v>
       </c>
       <c r="S12">
-        <v>6.674263972874875E-06</v>
+        <v>0.0007096168082305669</v>
       </c>
       <c r="T12">
-        <v>6.674263972874875E-06</v>
+        <v>0.0007096168082305669</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.122973333333332</v>
+        <v>0.258813</v>
       </c>
       <c r="H13">
-        <v>21.36892</v>
+        <v>0.776439</v>
       </c>
       <c r="I13">
-        <v>0.03888804453304685</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J13">
-        <v>0.03888804453304685</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.80862433333333</v>
+        <v>39.172931</v>
       </c>
       <c r="N13">
-        <v>56.425873</v>
+        <v>117.518793</v>
       </c>
       <c r="O13">
-        <v>0.6233419402349768</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="P13">
-        <v>0.6233419402349767</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="Q13">
-        <v>133.9733295630178</v>
+        <v>10.138463790903</v>
       </c>
       <c r="R13">
-        <v>1205.75996606716</v>
+        <v>91.24617411812699</v>
       </c>
       <c r="S13">
-        <v>0.0242405491311736</v>
+        <v>0.0006784510770263416</v>
       </c>
       <c r="T13">
-        <v>0.0242405491311736</v>
+        <v>0.0006784510770263415</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3870006666666667</v>
+        <v>11.213844</v>
       </c>
       <c r="H14">
-        <v>1.161002</v>
+        <v>33.641532</v>
       </c>
       <c r="I14">
-        <v>0.002112839463995207</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J14">
-        <v>0.002112839463995208</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,27 +1308,27 @@
         <v>0.080938</v>
       </c>
       <c r="O14">
-        <v>0.0008941297188036159</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="P14">
-        <v>0.0008941297188036158</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="Q14">
-        <v>0.01044101998622222</v>
+        <v>0.302542035224</v>
       </c>
       <c r="R14">
-        <v>0.09396917987600001</v>
+        <v>2.722878317016</v>
       </c>
       <c r="S14">
-        <v>1.889152555819217E-06</v>
+        <v>2.024566777341938E-05</v>
       </c>
       <c r="T14">
-        <v>1.889152555819217E-06</v>
+        <v>2.024566777341938E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3870006666666667</v>
+        <v>11.213844</v>
       </c>
       <c r="H15">
-        <v>1.161002</v>
+        <v>33.641532</v>
       </c>
       <c r="I15">
-        <v>0.002112839463995207</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J15">
-        <v>0.002112839463995208</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.33306466666667</v>
+        <v>40.972402</v>
       </c>
       <c r="N15">
-        <v>33.999194</v>
+        <v>122.917206</v>
       </c>
       <c r="O15">
-        <v>0.3755923023891076</v>
+        <v>0.5110542630933305</v>
       </c>
       <c r="P15">
-        <v>0.3755923023891076</v>
+        <v>0.5110542630933306</v>
       </c>
       <c r="Q15">
-        <v>4.385903581376446</v>
+        <v>459.458124333288</v>
       </c>
       <c r="R15">
-        <v>39.473132232388</v>
+        <v>4135.123118999592</v>
       </c>
       <c r="S15">
-        <v>0.0007935662388605278</v>
+        <v>0.03074626153738604</v>
       </c>
       <c r="T15">
-        <v>0.000793566238860528</v>
+        <v>0.03074626153738604</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,356 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3870006666666667</v>
+        <v>11.213844</v>
       </c>
       <c r="H16">
-        <v>1.161002</v>
+        <v>33.641532</v>
       </c>
       <c r="I16">
-        <v>0.002112839463995207</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J16">
-        <v>0.002112839463995208</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.005178666666666667</v>
+        <v>39.172931</v>
       </c>
       <c r="N16">
-        <v>0.015536</v>
+        <v>117.518793</v>
       </c>
       <c r="O16">
-        <v>0.0001716276571120238</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="P16">
-        <v>0.0001716276571120237</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="Q16">
-        <v>0.002004147452444445</v>
+        <v>439.279137256764</v>
       </c>
       <c r="R16">
-        <v>0.018037327072</v>
+        <v>3953.512235310875</v>
       </c>
       <c r="S16">
-        <v>3.626216870593216E-07</v>
+        <v>0.02939591341781664</v>
       </c>
       <c r="T16">
-        <v>3.626216870593216E-07</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.3870006666666667</v>
-      </c>
-      <c r="H17">
-        <v>1.161002</v>
-      </c>
-      <c r="I17">
-        <v>0.002112839463995207</v>
-      </c>
-      <c r="J17">
-        <v>0.002112839463995208</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>18.80862433333333</v>
-      </c>
-      <c r="N17">
-        <v>56.425873</v>
-      </c>
-      <c r="O17">
-        <v>0.6233419402349768</v>
-      </c>
-      <c r="P17">
-        <v>0.6233419402349767</v>
-      </c>
-      <c r="Q17">
-        <v>7.27895015608289</v>
-      </c>
-      <c r="R17">
-        <v>65.51055140474601</v>
-      </c>
-      <c r="S17">
-        <v>0.001317021450891801</v>
-      </c>
-      <c r="T17">
-        <v>0.001317021450891801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>30.91341533333334</v>
-      </c>
-      <c r="H18">
-        <v>92.74024600000001</v>
-      </c>
-      <c r="I18">
-        <v>0.1687725358349285</v>
-      </c>
-      <c r="J18">
-        <v>0.1687725358349286</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.02697933333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.080938</v>
-      </c>
-      <c r="O18">
-        <v>0.0008941297188036159</v>
-      </c>
-      <c r="P18">
-        <v>0.0008941297188036158</v>
-      </c>
-      <c r="Q18">
-        <v>0.8340233367497778</v>
-      </c>
-      <c r="R18">
-        <v>7.506210030748001</v>
-      </c>
-      <c r="S18">
-        <v>0.0001509045400078578</v>
-      </c>
-      <c r="T18">
-        <v>0.0001509045400078579</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>30.91341533333334</v>
-      </c>
-      <c r="H19">
-        <v>92.74024600000001</v>
-      </c>
-      <c r="I19">
-        <v>0.1687725358349285</v>
-      </c>
-      <c r="J19">
-        <v>0.1687725358349286</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>11.33306466666667</v>
-      </c>
-      <c r="N19">
-        <v>33.999194</v>
-      </c>
-      <c r="O19">
-        <v>0.3755923023891076</v>
-      </c>
-      <c r="P19">
-        <v>0.3755923023891076</v>
-      </c>
-      <c r="Q19">
-        <v>350.3437350401916</v>
-      </c>
-      <c r="R19">
-        <v>3153.093615361725</v>
-      </c>
-      <c r="S19">
-        <v>0.06338966531428897</v>
-      </c>
-      <c r="T19">
-        <v>0.06338966531428898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>30.91341533333334</v>
-      </c>
-      <c r="H20">
-        <v>92.74024600000001</v>
-      </c>
-      <c r="I20">
-        <v>0.1687725358349285</v>
-      </c>
-      <c r="J20">
-        <v>0.1687725358349286</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.005178666666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.015536</v>
-      </c>
-      <c r="O20">
-        <v>0.0001716276571120238</v>
-      </c>
-      <c r="P20">
-        <v>0.0001716276571120237</v>
-      </c>
-      <c r="Q20">
-        <v>0.1600902735395556</v>
-      </c>
-      <c r="R20">
-        <v>1.440812461856</v>
-      </c>
-      <c r="S20">
-        <v>2.896603491020385E-05</v>
-      </c>
-      <c r="T20">
-        <v>2.896603491020386E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>30.91341533333334</v>
-      </c>
-      <c r="H21">
-        <v>92.74024600000001</v>
-      </c>
-      <c r="I21">
-        <v>0.1687725358349285</v>
-      </c>
-      <c r="J21">
-        <v>0.1687725358349286</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>18.80862433333333</v>
-      </c>
-      <c r="N21">
-        <v>56.425873</v>
-      </c>
-      <c r="O21">
-        <v>0.6233419402349768</v>
-      </c>
-      <c r="P21">
-        <v>0.6233419402349767</v>
-      </c>
-      <c r="Q21">
-        <v>581.4388158649732</v>
-      </c>
-      <c r="R21">
-        <v>5232.949342784759</v>
-      </c>
-      <c r="S21">
-        <v>0.1052029999457215</v>
-      </c>
-      <c r="T21">
-        <v>0.1052029999457215</v>
+        <v>0.02939591341781663</v>
       </c>
     </row>
   </sheetData>
